--- a/biology/Botanique/Nicolas_Joseph_Marie_Le_Gall/Nicolas_Joseph_Marie_Le_Gall.xlsx
+++ b/biology/Botanique/Nicolas_Joseph_Marie_Le_Gall/Nicolas_Joseph_Marie_Le_Gall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nicolas Joseph Marie Le Gall de Kerlinou, né le 8 août 1787 à Auray (Bretagne) et décédé le 28 avril 1860, à Rennes (Ille-et-Vilaine), est un magistrat, homme politique et botaniste français.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est juge à Lorient (Morbihan) puis à la cour d'appel de Rennes (Ille-et-Vilaine).
 En tant que botaniste, Le Gall publia des ouvrages consacrés à la flore bretonne. On trouve son nom associé à une espèce d'ajonc, l'ajonc de Le Gall (Ulex gallii Planchon, 1849). C'est lui en effet qui, le premier, distingua « son » ajonc de l'ajonc de Provence (Ulex parviflorus), appelé à cette époque Ulex provincialis. Bien qu'il eût décrit la nouvelle espèce dans sa Flore du Morbihan déjà rédigée en 1849 mais retardée dans son édition, Planchon la décrivit trois ans avant la sortie de son ouvrage, en la lui dédiant.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Application de la méthode naturelle aux plantes composant la flore du département des Côtes du Nord - Prudhomme, Saint Brieuc, 1836 (111 pp.)
 Flore du Morbihan - J.M. Galles, Vannes, 1852 (840 pp.)</t>
@@ -576,7 +592,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Nicolas Joseph Marie Le Gall », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]
 Fiche biographique sur le site de l'Assemblée nationale.
